--- a/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
@@ -558,22 +558,22 @@
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
     </row>

--- a/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -581,7 +582,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -624,7 +625,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -663,7 +664,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -702,7 +703,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -741,7 +742,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -780,7 +781,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -819,7 +820,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -870,7 +871,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -933,7 +934,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -976,7 +977,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1015,7 +1016,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1054,7 +1055,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1093,7 +1094,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1132,7 +1133,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1171,7 +1172,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1222,7 +1223,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1285,7 +1286,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1328,7 +1329,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1367,7 +1368,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1406,7 +1407,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1445,7 +1446,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1484,7 +1485,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1523,7 +1524,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1574,7 +1575,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1637,7 +1638,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1680,7 +1681,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1719,7 +1720,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1758,7 +1759,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1797,7 +1798,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1836,7 +1837,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1875,7 +1876,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1926,7 +1927,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1989,7 +1990,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2032,7 +2033,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -2071,7 +2072,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2110,7 +2111,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2149,7 +2150,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2188,7 +2189,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2227,7 +2228,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2278,7 +2279,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2341,7 +2342,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2384,7 +2385,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2423,7 +2424,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2462,7 +2463,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2501,7 +2502,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2540,7 +2541,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2579,7 +2580,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2630,7 +2631,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2693,7 +2694,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2736,7 +2737,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2775,7 +2776,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2814,7 +2815,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2853,7 +2854,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2892,7 +2893,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2931,7 +2932,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2982,7 +2983,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -3045,7 +3046,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -3088,7 +3089,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -3127,7 +3128,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -3166,7 +3167,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -3205,7 +3206,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3244,7 +3245,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3283,7 +3284,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3334,7 +3335,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3397,7 +3398,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3440,7 +3441,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3479,7 +3480,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3518,7 +3519,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3557,7 +3558,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3596,7 +3597,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3635,7 +3636,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3686,7 +3687,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3749,7 +3750,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3792,7 +3793,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3831,7 +3832,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3870,7 +3871,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3909,7 +3910,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3948,7 +3949,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3987,7 +3988,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -4038,7 +4039,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -4101,7 +4102,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -4144,7 +4145,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -4183,7 +4184,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -4222,7 +4223,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4261,7 +4262,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -4300,7 +4301,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4339,7 +4340,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -4390,7 +4391,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -4453,7 +4454,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4496,7 +4497,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4535,7 +4536,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4574,7 +4575,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4613,7 +4614,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4652,7 +4653,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4691,7 +4692,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -4742,7 +4743,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4805,7 +4806,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4848,7 +4849,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4887,7 +4888,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4926,7 +4927,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4965,7 +4966,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -5004,7 +5005,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -5043,7 +5044,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -5094,7 +5095,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -5157,7 +5158,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -5200,7 +5201,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -5239,7 +5240,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -5278,7 +5279,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5317,7 +5318,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -5356,7 +5357,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5395,7 +5396,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -5446,7 +5447,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -5509,7 +5510,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5552,7 +5553,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5591,7 +5592,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5630,7 +5631,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5669,7 +5670,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5708,7 +5709,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5747,7 +5748,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -5798,7 +5799,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5861,7 +5862,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5904,7 +5905,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5943,7 +5944,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5982,7 +5983,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6021,7 +6022,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -6060,7 +6061,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -6099,7 +6100,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -6150,7 +6151,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -6213,7 +6214,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -6256,7 +6257,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -6295,7 +6296,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -6334,7 +6335,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -6373,7 +6374,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -6412,7 +6413,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -6451,7 +6452,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -6502,7 +6503,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -6565,7 +6566,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6608,7 +6609,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6647,7 +6648,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6686,7 +6687,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6725,7 +6726,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6764,7 +6765,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6803,7 +6804,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -6854,7 +6855,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -6917,7 +6918,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6960,7 +6961,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6999,7 +7000,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -7038,7 +7039,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -7077,7 +7078,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -7116,7 +7117,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -7155,7 +7156,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -7206,7 +7207,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -7269,7 +7270,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -7312,7 +7313,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -7351,7 +7352,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -7390,7 +7391,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -7429,7 +7430,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -7468,7 +7469,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -7507,7 +7508,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -7558,7 +7559,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -7621,7 +7622,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7664,7 +7665,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7703,7 +7704,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7742,7 +7743,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7781,7 +7782,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7820,7 +7821,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7859,7 +7860,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -7910,7 +7911,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -7973,7 +7974,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -8016,7 +8017,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -8055,7 +8056,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -8094,7 +8095,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -8133,7 +8134,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -8172,7 +8173,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -8211,7 +8212,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -8262,7 +8263,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -8325,7 +8326,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -8368,7 +8369,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -8407,7 +8408,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -8446,7 +8447,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -8485,7 +8486,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -8524,7 +8525,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -8563,7 +8564,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -8614,7 +8615,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -8677,7 +8678,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -8720,7 +8721,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -8759,7 +8760,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -8798,7 +8799,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8837,7 +8838,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8876,7 +8877,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8915,7 +8916,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -8966,7 +8967,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -9029,7 +9030,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -9072,7 +9073,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -9111,7 +9112,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -9150,7 +9151,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -9189,7 +9190,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -9228,7 +9229,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -9267,7 +9268,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -9318,7 +9319,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C201" t="inlineStr">
@@ -9381,7 +9382,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -9424,7 +9425,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -9463,7 +9464,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -9502,7 +9503,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -9541,7 +9542,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -9580,7 +9581,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -9619,7 +9620,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -9670,7 +9671,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -9733,7 +9734,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9776,7 +9777,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9815,7 +9816,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9854,7 +9855,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9893,7 +9894,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9932,7 +9933,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9971,7 +9972,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C216" t="inlineStr">
@@ -10022,7 +10023,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C217" t="inlineStr">
@@ -10085,7 +10086,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -10128,7 +10129,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -10167,7 +10168,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -10206,7 +10207,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -10245,7 +10246,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -10284,7 +10285,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -10323,7 +10324,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -10374,7 +10375,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -10437,7 +10438,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -10480,7 +10481,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -10519,7 +10520,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -10558,7 +10559,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -10597,7 +10598,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -10636,7 +10637,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -10675,7 +10676,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C232" t="inlineStr">
@@ -10726,7 +10727,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C233" t="inlineStr">
@@ -10789,7 +10790,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -10832,7 +10833,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -10871,7 +10872,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -10910,7 +10911,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -10949,7 +10950,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -10988,7 +10989,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11027,7 +11028,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -11078,7 +11079,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C241" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -582,7 +581,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -625,7 +624,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -664,7 +663,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -703,7 +702,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -742,7 +741,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -781,7 +780,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -820,7 +819,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -871,7 +870,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -934,7 +933,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -977,7 +976,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1016,7 +1015,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1055,7 +1054,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1094,7 +1093,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1133,7 +1132,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1172,7 +1171,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1223,7 +1222,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1286,7 +1285,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1329,7 +1328,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1368,7 +1367,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1407,7 +1406,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1446,7 +1445,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1485,7 +1484,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1524,7 +1523,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1575,7 +1574,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1638,7 +1637,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1681,7 +1680,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1720,7 +1719,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1759,7 +1758,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1798,7 +1797,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1837,7 +1836,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1876,7 +1875,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1927,7 +1926,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1990,7 +1989,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2033,7 +2032,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -2072,7 +2071,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2111,7 +2110,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2150,7 +2149,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2189,7 +2188,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2228,7 +2227,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2279,7 +2278,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2342,7 +2341,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2385,7 +2384,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2424,7 +2423,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2463,7 +2462,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2502,7 +2501,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2541,7 +2540,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2580,7 +2579,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2631,7 +2630,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2694,7 +2693,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2737,7 +2736,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2776,7 +2775,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2815,7 +2814,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2854,7 +2853,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2893,7 +2892,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2932,7 +2931,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2983,7 +2982,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -3046,7 +3045,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -3089,7 +3088,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -3128,7 +3127,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -3167,7 +3166,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -3206,7 +3205,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3245,7 +3244,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3284,7 +3283,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3335,7 +3334,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3398,7 +3397,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3441,7 +3440,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3480,7 +3479,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3519,7 +3518,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3558,7 +3557,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3597,7 +3596,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3636,7 +3635,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3687,7 +3686,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3750,7 +3749,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3793,7 +3792,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3832,7 +3831,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3871,7 +3870,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3910,7 +3909,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3949,7 +3948,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3988,7 +3987,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -4039,7 +4038,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -4102,7 +4101,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -4145,7 +4144,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -4184,7 +4183,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -4223,7 +4222,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4262,7 +4261,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -4301,7 +4300,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4340,7 +4339,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -4391,7 +4390,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -4454,7 +4453,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4497,7 +4496,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4536,7 +4535,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4575,7 +4574,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4614,7 +4613,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4653,7 +4652,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4692,7 +4691,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -4743,7 +4742,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4806,7 +4805,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4849,7 +4848,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4888,7 +4887,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4927,7 +4926,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4966,7 +4965,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -5005,7 +5004,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -5044,7 +5043,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -5095,7 +5094,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -5158,7 +5157,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -5201,7 +5200,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -5240,7 +5239,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -5279,7 +5278,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5318,7 +5317,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -5357,7 +5356,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5396,7 +5395,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -5447,7 +5446,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -5510,7 +5509,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5553,7 +5552,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5592,7 +5591,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5631,7 +5630,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5670,7 +5669,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5709,7 +5708,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5748,7 +5747,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -5799,7 +5798,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5862,7 +5861,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5905,7 +5904,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5944,7 +5943,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5983,7 +5982,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6022,7 +6021,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -6061,7 +6060,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -6100,7 +6099,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -6151,7 +6150,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -6214,7 +6213,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -6257,7 +6256,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -6296,7 +6295,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -6335,7 +6334,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -6374,7 +6373,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -6413,7 +6412,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -6452,7 +6451,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -6503,7 +6502,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -6566,7 +6565,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6609,7 +6608,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6648,7 +6647,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6687,7 +6686,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6726,7 +6725,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6765,7 +6764,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6804,7 +6803,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -6855,7 +6854,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -6918,7 +6917,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6961,7 +6960,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -7000,7 +6999,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -7039,7 +7038,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -7078,7 +7077,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -7117,7 +7116,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -7156,7 +7155,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -7207,7 +7206,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -7270,7 +7269,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -7313,7 +7312,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -7352,7 +7351,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -7391,7 +7390,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -7430,7 +7429,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -7469,7 +7468,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -7508,7 +7507,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -7559,7 +7558,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -7622,7 +7621,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7665,7 +7664,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7704,7 +7703,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7743,7 +7742,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7782,7 +7781,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7821,7 +7820,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7860,7 +7859,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -7911,7 +7910,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -7974,7 +7973,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -8017,7 +8016,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -8056,7 +8055,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -8095,7 +8094,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -8134,7 +8133,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -8173,7 +8172,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -8212,7 +8211,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -8263,7 +8262,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -8326,7 +8325,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -8369,7 +8368,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -8408,7 +8407,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -8447,7 +8446,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -8486,7 +8485,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -8525,7 +8524,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -8564,7 +8563,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -8615,7 +8614,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -8678,7 +8677,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -8721,7 +8720,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -8760,7 +8759,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -8799,7 +8798,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8838,7 +8837,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8877,7 +8876,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8916,7 +8915,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -8967,7 +8966,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -9030,7 +9029,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -9073,7 +9072,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -9112,7 +9111,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -9151,7 +9150,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -9190,7 +9189,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -9229,7 +9228,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -9268,7 +9267,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -9319,7 +9318,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C201" t="inlineStr">
@@ -9382,7 +9381,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -9425,7 +9424,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -9464,7 +9463,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -9503,7 +9502,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -9542,7 +9541,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -9581,7 +9580,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -9620,7 +9619,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -9671,7 +9670,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -9734,7 +9733,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9777,7 +9776,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9816,7 +9815,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9855,7 +9854,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9894,7 +9893,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9933,7 +9932,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9972,7 +9971,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C216" t="inlineStr">
@@ -10023,7 +10022,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C217" t="inlineStr">
@@ -10086,7 +10085,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -10129,7 +10128,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -10168,7 +10167,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -10207,7 +10206,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -10246,7 +10245,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -10285,7 +10284,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -10324,7 +10323,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -10375,7 +10374,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -10438,7 +10437,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -10481,7 +10480,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -10520,7 +10519,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -10559,7 +10558,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -10598,7 +10597,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -10637,7 +10636,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -10676,7 +10675,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C232" t="inlineStr">
@@ -10727,7 +10726,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C233" t="inlineStr">
@@ -10790,7 +10789,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>43993</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -10833,7 +10832,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>44036</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -10872,7 +10871,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>44069</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -10911,7 +10910,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>44120</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -10950,7 +10949,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>44138</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -10989,7 +10988,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11028,7 +11027,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>44178</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -11079,7 +11078,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>44202</v>
       </c>
       <c r="C241" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W20-03-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -581,7 +582,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -624,7 +625,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -663,7 +664,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -702,7 +703,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -741,7 +742,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -780,7 +781,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -819,7 +820,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -870,7 +871,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvTrojan</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -933,7 +934,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -976,7 +977,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1015,7 +1016,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1054,7 +1055,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1093,7 +1094,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1132,7 +1133,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1171,7 +1172,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1222,7 +1223,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvScepter</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1285,7 +1286,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1328,7 +1329,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1367,7 +1368,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1406,7 +1407,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1445,7 +1446,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1484,7 +1485,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1523,7 +1524,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1574,7 +1575,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1637,7 +1638,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1680,7 +1681,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1719,7 +1720,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1758,7 +1759,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1797,7 +1798,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1836,7 +1837,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1875,7 +1876,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1926,7 +1927,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1989,7 +1990,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2032,7 +2033,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -2071,7 +2072,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2110,7 +2111,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2149,7 +2150,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2188,7 +2189,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2227,7 +2228,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -2278,7 +2279,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2341,7 +2342,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2384,7 +2385,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2423,7 +2424,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2462,7 +2463,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2501,7 +2502,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2540,7 +2541,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2579,7 +2580,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2630,7 +2631,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCatapult</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2693,7 +2694,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2736,7 +2737,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2775,7 +2776,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2814,7 +2815,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2853,7 +2854,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2892,7 +2893,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2931,7 +2932,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2982,7 +2983,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -3045,7 +3046,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -3088,7 +3089,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -3127,7 +3128,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -3166,7 +3167,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -3205,7 +3206,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3244,7 +3245,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3283,7 +3284,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -3334,7 +3335,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvRockstar</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3397,7 +3398,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3440,7 +3441,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3479,7 +3480,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3518,7 +3519,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3557,7 +3558,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3596,7 +3597,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3635,7 +3636,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3686,7 +3687,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3749,7 +3750,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3792,7 +3793,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3831,7 +3832,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3870,7 +3871,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3909,7 +3910,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3948,7 +3949,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3987,7 +3988,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -4038,7 +4039,7 @@
           <t>FAR SAC W20-03-2MgmtLow InputCvCobra</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -4101,7 +4102,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -4144,7 +4145,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -4183,7 +4184,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -4222,7 +4223,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4261,7 +4262,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -4300,7 +4301,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4339,7 +4340,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -4390,7 +4391,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -4453,7 +4454,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4496,7 +4497,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4535,7 +4536,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4574,7 +4575,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4613,7 +4614,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4652,7 +4653,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4691,7 +4692,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -4742,7 +4743,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4805,7 +4806,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4848,7 +4849,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4887,7 +4888,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4926,7 +4927,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4965,7 +4966,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -5004,7 +5005,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -5043,7 +5044,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -5094,7 +5095,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvNighthawk</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -5157,7 +5158,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -5200,7 +5201,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -5239,7 +5240,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -5278,7 +5279,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5317,7 +5318,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -5356,7 +5357,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5395,7 +5396,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -5446,7 +5447,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -5509,7 +5510,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5552,7 +5553,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5591,7 +5592,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5630,7 +5631,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5669,7 +5670,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5708,7 +5709,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5747,7 +5748,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -5798,7 +5799,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5861,7 +5862,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5904,7 +5905,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5943,7 +5944,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5982,7 +5983,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6021,7 +6022,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -6060,7 +6061,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -6099,7 +6100,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -6150,7 +6151,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCatapult</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -6213,7 +6214,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -6256,7 +6257,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -6295,7 +6296,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -6334,7 +6335,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -6373,7 +6374,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -6412,7 +6413,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -6451,7 +6452,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -6502,7 +6503,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -6565,7 +6566,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6608,7 +6609,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6647,7 +6648,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6686,7 +6687,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6725,7 +6726,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6764,7 +6765,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6803,7 +6804,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -6854,7 +6855,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvRockstar</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -6917,7 +6918,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6960,7 +6961,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6999,7 +7000,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -7038,7 +7039,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -7077,7 +7078,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -7116,7 +7117,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -7155,7 +7156,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -7206,7 +7207,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvZanzibar</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -7269,7 +7270,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -7312,7 +7313,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -7351,7 +7352,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -7390,7 +7391,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -7429,7 +7430,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -7468,7 +7469,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -7507,7 +7508,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -7558,7 +7559,7 @@
           <t>FAR SAC W20-03-2MgmtStandardCvCobra</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -7621,7 +7622,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7664,7 +7665,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7703,7 +7704,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7742,7 +7743,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7781,7 +7782,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7820,7 +7821,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7859,7 +7860,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C168" t="inlineStr">
@@ -7910,7 +7911,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C169" t="inlineStr">
@@ -7973,7 +7974,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -8016,7 +8017,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -8055,7 +8056,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -8094,7 +8095,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -8133,7 +8134,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -8172,7 +8173,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -8211,7 +8212,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -8262,7 +8263,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -8325,7 +8326,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -8368,7 +8369,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -8407,7 +8408,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -8446,7 +8447,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -8485,7 +8486,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -8524,7 +8525,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -8563,7 +8564,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C184" t="inlineStr">
@@ -8614,7 +8615,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvNighthawk</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -8677,7 +8678,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -8720,7 +8721,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -8759,7 +8760,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -8798,7 +8799,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8837,7 +8838,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8876,7 +8877,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8915,7 +8916,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -8966,7 +8967,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -9029,7 +9030,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -9072,7 +9073,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -9111,7 +9112,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -9150,7 +9151,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -9189,7 +9190,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -9228,7 +9229,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -9267,7 +9268,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -9318,7 +9319,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C201" t="inlineStr">
@@ -9381,7 +9382,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -9424,7 +9425,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -9463,7 +9464,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -9502,7 +9503,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -9541,7 +9542,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -9580,7 +9581,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -9619,7 +9620,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -9670,7 +9671,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCatapult</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -9733,7 +9734,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9776,7 +9777,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9815,7 +9816,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9854,7 +9855,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9893,7 +9894,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9932,7 +9933,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9971,7 +9972,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C216" t="inlineStr">
@@ -10022,7 +10023,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C217" t="inlineStr">
@@ -10085,7 +10086,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -10128,7 +10129,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -10167,7 +10168,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -10206,7 +10207,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -10245,7 +10246,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -10284,7 +10285,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -10323,7 +10324,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -10374,7 +10375,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvRockstar</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -10437,7 +10438,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -10480,7 +10481,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -10519,7 +10520,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -10558,7 +10559,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -10597,7 +10598,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -10636,7 +10637,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -10675,7 +10676,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C232" t="inlineStr">
@@ -10726,7 +10727,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvZanzibar</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C233" t="inlineStr">
@@ -10789,7 +10790,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43993</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -10832,7 +10833,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>44036</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -10871,7 +10872,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>44069</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -10910,7 +10911,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>44120</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -10949,7 +10950,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>44138</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -10988,7 +10989,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>44166</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11027,7 +11028,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>44178</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -11078,7 +11079,7 @@
           <t>FAR SAC W20-03-2MgmtHigh InputCvCobra</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>44202</v>
       </c>
       <c r="C241" t="inlineStr">
